--- a/report_zone/Report_zone6.xlsx
+++ b/report_zone/Report_zone6.xlsx
@@ -2409,7 +2409,7 @@
       </c>
       <c r="HF2" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="HF3" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="HF4" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="HF5" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="HF6" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="HF7" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -7757,7 +7757,7 @@
       <c r="HE8" t="inlineStr"/>
       <c r="HF8" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="HF9" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="HF10" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="HF11" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="HF12" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="HF13" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -13193,7 +13193,7 @@
       </c>
       <c r="HF14" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="BV15" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BW15" t="inlineStr">
@@ -13612,12 +13612,12 @@
       </c>
       <c r="CO15" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CP15" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CQ15" t="inlineStr">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="CR15" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CS15" t="inlineStr"/>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="DC15" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DD15" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="FH15" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C364</t>
         </is>
       </c>
       <c r="FI15" t="inlineStr">
@@ -14101,7 +14101,7 @@
       </c>
       <c r="HF15" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -15009,7 +15009,7 @@
       </c>
       <c r="HF16" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="HF17" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="HF18" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -17753,7 +17753,7 @@
       </c>
       <c r="HF19" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -18661,7 +18661,7 @@
       </c>
       <c r="HF20" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -19569,7 +19569,7 @@
       </c>
       <c r="HF21" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -20485,7 +20485,7 @@
       </c>
       <c r="HF22" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -21405,7 +21405,7 @@
       </c>
       <c r="HF23" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -22313,7 +22313,7 @@
       </c>
       <c r="HF24" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -23221,7 +23221,7 @@
       </c>
       <c r="HF25" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -24129,7 +24129,7 @@
       </c>
       <c r="HF26" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -25045,7 +25045,7 @@
       </c>
       <c r="HF27" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -25953,7 +25953,7 @@
       </c>
       <c r="HF28" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -26861,7 +26861,7 @@
       </c>
       <c r="HF29" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -27765,7 +27765,7 @@
       </c>
       <c r="HF30" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -28673,7 +28673,7 @@
       </c>
       <c r="HF31" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -29581,7 +29581,7 @@
       </c>
       <c r="HF32" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -30489,7 +30489,7 @@
       </c>
       <c r="HF33" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -31397,7 +31397,7 @@
       </c>
       <c r="HF34" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -32305,7 +32305,7 @@
       </c>
       <c r="HF35" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -33217,7 +33217,7 @@
       </c>
       <c r="HF36" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -34125,7 +34125,7 @@
       </c>
       <c r="HF37" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -35033,7 +35033,7 @@
       </c>
       <c r="HF38" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -35945,7 +35945,7 @@
       </c>
       <c r="HF39" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -36853,7 +36853,7 @@
       </c>
       <c r="HF40" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -37761,7 +37761,7 @@
       </c>
       <c r="HF41" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -38669,7 +38669,7 @@
       </c>
       <c r="HF42" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -39577,7 +39577,7 @@
       </c>
       <c r="HF43" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -40489,7 +40489,7 @@
       </c>
       <c r="HF44" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -41397,7 +41397,7 @@
       </c>
       <c r="HF45" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -42305,7 +42305,7 @@
       </c>
       <c r="HF46" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -43213,7 +43213,7 @@
       </c>
       <c r="HF47" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -44133,7 +44133,7 @@
       </c>
       <c r="HF48" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -45049,7 +45049,7 @@
       </c>
       <c r="HF49" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -45913,7 +45913,7 @@
       <c r="HE50" t="inlineStr"/>
       <c r="HF50" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -46745,7 +46745,7 @@
       </c>
       <c r="HF51" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -47653,7 +47653,7 @@
       </c>
       <c r="HF52" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -48561,7 +48561,7 @@
       </c>
       <c r="HF53" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -49397,7 +49397,7 @@
       </c>
       <c r="HF54" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -50305,7 +50305,7 @@
       </c>
       <c r="HF55" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -51193,7 +51193,7 @@
       <c r="HE56" t="inlineStr"/>
       <c r="HF56" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -52101,7 +52101,7 @@
       </c>
       <c r="HF57" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -53009,7 +53009,7 @@
       </c>
       <c r="HF58" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -53917,7 +53917,7 @@
       </c>
       <c r="HF59" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -54825,7 +54825,7 @@
       </c>
       <c r="HF60" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -55733,7 +55733,7 @@
       </c>
       <c r="HF61" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -56641,7 +56641,7 @@
       </c>
       <c r="HF62" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -57549,7 +57549,7 @@
       </c>
       <c r="HF63" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -58457,7 +58457,7 @@
       </c>
       <c r="HF64" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -59365,7 +59365,7 @@
       </c>
       <c r="HF65" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -60273,7 +60273,7 @@
       </c>
       <c r="HF66" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -61181,7 +61181,7 @@
       </c>
       <c r="HF67" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -62089,7 +62089,7 @@
       </c>
       <c r="HF68" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -62997,7 +62997,7 @@
       </c>
       <c r="HF69" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -63069,7 +63069,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -63695,7 +63695,7 @@
       <c r="FG70" t="inlineStr"/>
       <c r="FH70" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C363</t>
         </is>
       </c>
       <c r="FI70" t="inlineStr">
@@ -63913,7 +63913,7 @@
       </c>
       <c r="HF70" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -64833,7 +64833,7 @@
       </c>
       <c r="HF71" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -65741,7 +65741,7 @@
       </c>
       <c r="HF72" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -66649,7 +66649,7 @@
       </c>
       <c r="HF73" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
@@ -67565,7 +67565,7 @@
       </c>
       <c r="HF74" t="inlineStr">
         <is>
-          <t>2025-05-19 05:46:05</t>
+          <t>2025-05-19 19:46:10</t>
         </is>
       </c>
     </row>
